--- a/data/trans_camb/P1002-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.807666308289581</v>
+        <v>-2.90887567946471</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.068176759011491</v>
+        <v>-2.534093523550603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.713522427848293</v>
+        <v>-9.338324100202492</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.266155237553397</v>
+        <v>5.585908509847837</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.064668305680144</v>
+        <v>6.103994431517631</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.545662223968755</v>
+        <v>-8.748962204740014</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.034929361122305</v>
+        <v>2.617619394599422</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.981081670020244</v>
+        <v>2.931775674376749</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.804536807466557</v>
+        <v>-7.980616025376473</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.655183333420521</v>
+        <v>6.165438100854795</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.949203863008524</v>
+        <v>6.75340697208001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.714063404922033</v>
+        <v>-2.485535502854367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.75720981802079</v>
+        <v>17.71783202547943</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.58688283315276</v>
+        <v>17.54432332611228</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.709039623975086</v>
+        <v>-1.788471008692915</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.79908871048035</v>
+        <v>10.29704148439438</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.83427264694161</v>
+        <v>10.28052967319989</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.030693734929041</v>
+        <v>-2.92967851940575</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2942917920922442</v>
+        <v>-0.3311132822585375</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3470686582078005</v>
+        <v>-0.2865352205665533</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9231658278152856</v>
+        <v>-0.918773769749791</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4294463361854887</v>
+        <v>0.5038624586601405</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5099535966753893</v>
+        <v>0.4881364567752611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8235238139452991</v>
+        <v>-0.8027823897469974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3135120058901138</v>
+        <v>0.2674401253734006</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2788745981848827</v>
+        <v>0.2712269177456516</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8264892671141224</v>
+        <v>-0.822179524130543</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.36053902083754</v>
+        <v>1.143426528605351</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.418392344349691</v>
+        <v>1.316604409454959</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4582462545022063</v>
+        <v>-0.3443746231582786</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.193232813971408</v>
+        <v>3.100490455603981</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.26535475870579</v>
+        <v>3.099084361783311</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2769329238461176</v>
+        <v>-0.305502319853584</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.767610978652866</v>
+        <v>1.722839086509186</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.797334842500513</v>
+        <v>1.638356038729098</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.475408824051676</v>
+        <v>-0.4754477522305873</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-6.544585492845339</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-4.091602163357676</v>
+        <v>-4.091602163357673</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3819526650656366</v>
@@ -878,7 +878,7 @@
         <v>-5.551789896175348</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.204426664858968</v>
+        <v>-2.204426664858963</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.892586313321349</v>
+        <v>-3.11235546219199</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.54590746899675</v>
+        <v>-7.711411429113832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.576721814673113</v>
+        <v>-3.870556489872646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.073977103973977</v>
+        <v>-4.096070597170025</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.34195504827311</v>
+        <v>-10.51438041721024</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.70269278316596</v>
+        <v>-8.234549715576161</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.537844017203833</v>
+        <v>-2.63474248846178</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.202229898666046</v>
+        <v>-8.020608404120324</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.001164477658828</v>
+        <v>-4.857226420850323</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.13633827778311</v>
+        <v>4.059070566389066</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.048048711469875</v>
+        <v>-1.904934574192716</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.166208825129476</v>
+        <v>3.133622775279375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.895816651903069</v>
+        <v>4.609208659776797</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.200784982139732</v>
+        <v>-2.6542224286994</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.2157819263431164</v>
+        <v>-0.6011992277457029</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.286255817871184</v>
+        <v>3.189259344996458</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.092641812150765</v>
+        <v>-3.270810170493599</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2228985929531837</v>
+        <v>0.4976419875690635</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.4481502932127345</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2801785859812182</v>
+        <v>-0.280178585981218</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.03479680651350252</v>
@@ -983,7 +983,7 @@
         <v>-0.505781413483878</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2008285715642839</v>
+        <v>-0.2008285715642835</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.32141546517768</v>
+        <v>-0.3595060544514105</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.813743889629193</v>
+        <v>-0.8079027109298486</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4096433197464853</v>
+        <v>-0.4288543029349069</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2510672808821517</v>
+        <v>-0.2478854301737492</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6084155824634906</v>
+        <v>-0.6241692510807646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4523392573014783</v>
+        <v>-0.4860563449164489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2005755002030177</v>
+        <v>-0.2070689358306285</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6471932557551443</v>
+        <v>-0.6394928958411149</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3989703482405029</v>
+        <v>-0.3861377786423</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7435436472366791</v>
+        <v>0.7877582686701617</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3398547628945064</v>
+        <v>-0.2738229465758687</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5497226951366808</v>
+        <v>0.5566873325617674</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3979647643692635</v>
+        <v>0.3667456347960641</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1704681872898456</v>
+        <v>-0.1998102051655266</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.272205215955316e-05</v>
+        <v>-0.04868968602190489</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3338103490757363</v>
+        <v>0.3243527035774545</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3079392936617236</v>
+        <v>-0.3258986204937566</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.02322556407276196</v>
+        <v>0.05096154707114983</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.9304871476602811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.780286229906906</v>
+        <v>4.780286229906908</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.717640481359522</v>
@@ -1092,7 +1092,7 @@
         <v>1.230538682048896</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.999933270415899</v>
+        <v>3.999933270415901</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.628939705450593</v>
+        <v>1.524446355851</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9609738613426952</v>
+        <v>-0.9514308327006726</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.208753490974687</v>
+        <v>2.398292241156124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.968121866714772</v>
+        <v>4.010948442478194</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.608082228200516</v>
+        <v>-1.501332355027219</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5832720298066706</v>
+        <v>0.5567618953191242</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.501440908464222</v>
+        <v>3.790920597063524</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7011406479157107</v>
+        <v>-0.6382481317377681</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.047665866307256</v>
+        <v>2.10655143363621</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.24958654532859</v>
+        <v>7.387673909061151</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.125485889773876</v>
+        <v>2.950516856124048</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.668305872063494</v>
+        <v>7.823070735216743</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.679621141113</v>
+        <v>11.98455628156545</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.651083851784046</v>
+        <v>4.792461488516599</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.815760480447199</v>
+        <v>6.301510427892627</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.606112221044878</v>
+        <v>8.792263423374774</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.017978207295065</v>
+        <v>3.151042974592285</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.941330622284472</v>
+        <v>6.196226155152469</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.7902280781854549</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4.059719051611116</v>
+        <v>4.059719051611117</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>2.270350832603133</v>
@@ -1197,7 +1197,7 @@
         <v>0.5311984623312305</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.726689647118324</v>
+        <v>1.726689647118325</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2592578570800978</v>
+        <v>0.3009949525370985</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.694330881668903</v>
+        <v>-0.6287156293582402</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.333422082544075</v>
+        <v>0.4092791095124731</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.7460272898760506</v>
+        <v>0.5650946123362943</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4099708674204459</v>
+        <v>-0.3764212361396607</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05084183720496782</v>
+        <v>0.04536932096217675</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9697313925849868</v>
+        <v>1.040043249224969</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2615570334928474</v>
+        <v>-0.2284755071425838</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6186543443408418</v>
+        <v>0.5296662927916101</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>20.07847931514909</v>
+        <v>19.4010116961546</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>11.15484237436559</v>
+        <v>9.459973838440288</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>19.71596568243756</v>
+        <v>21.14843514025586</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.52684194268077</v>
+        <v>5.688402575041162</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.098884484110483</v>
+        <v>2.271533609230308</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.777997399143445</v>
+        <v>3.368651997807851</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>5.916285139612199</v>
+        <v>5.978162422534668</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.011316065873285</v>
+        <v>2.157255816696513</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.13750227504925</v>
+        <v>4.590910192340764</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>9.463347190849294</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.328461945513903</v>
+        <v>4.3284619455139</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.814611302062898</v>
+        <v>1.920348455661425</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.096543681279796</v>
+        <v>3.984399035910107</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.344439104430107</v>
+        <v>1.370425975918636</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.18337452349871</v>
+        <v>9.224568571653586</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.125069024814542</v>
+        <v>6.657498779603769</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3688313350368189</v>
+        <v>0.3990989867236739</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.569287688985652</v>
+        <v>6.513746234822153</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.324593272086479</v>
+        <v>6.540267866528877</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.584184988747396</v>
+        <v>1.986190431028299</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.663429504749974</v>
+        <v>7.648839563090615</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.50376886107891</v>
+        <v>10.25835191042743</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.514751073271604</v>
+        <v>7.388128722451764</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.39824407543997</v>
+        <v>18.24561284447394</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>16.53212403647083</v>
+        <v>16.47304243031308</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.437311484569914</v>
+        <v>8.529368470095751</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.20943705465549</v>
+        <v>12.11592869327849</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.248271647834</v>
+        <v>12.38203890640118</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.072637250680838</v>
+        <v>7.054371360561257</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.698837741819938</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6434839286313759</v>
+        <v>0.6434839286313762</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>2.116462715873637</v>
@@ -1411,7 +1411,7 @@
         <v>2.170687659193667</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.9928557770237757</v>
+        <v>0.992855777023775</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4249830154296688</v>
+        <v>0.4429538432963737</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1.177365182635288</v>
+        <v>1.162244110762529</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2318144166572689</v>
+        <v>0.2685549053079195</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.980019929542545</v>
+        <v>0.9718078337968321</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7266870904797206</v>
+        <v>0.6676654494070897</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01738870367320949</v>
+        <v>0.02554699008409431</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.139233250029518</v>
+        <v>1.164081717980546</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.1136583204603</v>
+        <v>1.18530184031845</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2792440658326528</v>
+        <v>0.3344411875108592</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10.32622571916389</v>
+        <v>9.384638120527741</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14.17971379389571</v>
+        <v>12.1927903757136</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8.487708916325074</v>
+        <v>8.183119041550301</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.546104118187615</v>
+        <v>3.83231613127664</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.263958987093897</v>
+        <v>3.137889756954864</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.747307717137248</v>
+        <v>1.717505079761988</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.632425987893261</v>
+        <v>3.62407137341028</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.659939764942771</v>
+        <v>3.771942449457784</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.066283125296467</v>
+        <v>2.06551967230777</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.143181933564368</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.316020082623225</v>
+        <v>2.316020082623223</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.830374503175529</v>
@@ -1520,7 +1520,7 @@
         <v>0.1055399421579083</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.406255352941904</v>
+        <v>-0.4062553529419033</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.184024845101932</v>
+        <v>-5.747719657809305</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.031634564886559</v>
+        <v>-6.035257248462952</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.093545750125406</v>
+        <v>-7.410404868496044</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.312958359838342</v>
+        <v>5.57496278587513</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.8273100957929</v>
+        <v>-2.514174693599355</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.909353246388596</v>
+        <v>-2.117086652004286</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.277513393578781</v>
+        <v>1.271115344946468</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.15238735973783</v>
+        <v>-3.015520773013223</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.345330823991098</v>
+        <v>-3.185254528866484</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.188701219436478</v>
+        <v>2.657923793590499</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.991740452282552</v>
+        <v>2.4148597223792</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.007812798087158119</v>
+        <v>-0.05565145199288201</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.63497973662475</v>
+        <v>17.23314552780162</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.048898822853713</v>
+        <v>7.30242365176881</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.013435530297694</v>
+        <v>6.166071188951567</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.607837372563143</v>
+        <v>8.773817968974708</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.239086813089664</v>
+        <v>3.201209864437592</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.127846371669587</v>
+        <v>2.337934579636488</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.3646737568976349</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3940830833600417</v>
+        <v>0.3940830833600414</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.8013113153095505</v>
@@ -1625,7 +1625,7 @@
         <v>0.01750803168836083</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.06739374162467361</v>
+        <v>-0.0673937416246735</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7380840412174925</v>
+        <v>-0.6990117947342122</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7371901330144014</v>
+        <v>-0.7536891923063765</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8117311808985009</v>
+        <v>-0.8151595825840414</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5041038114264923</v>
+        <v>0.5603666608514565</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4083486349622803</v>
+        <v>-0.3098988663844092</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2409911731131993</v>
+        <v>-0.2386075078016242</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1447951503150739</v>
+        <v>0.144195801081497</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4058902503801803</v>
+        <v>-0.4013320776202459</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4214240353937915</v>
+        <v>-0.3988861842718698</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.619781061997565</v>
+        <v>0.7055020012725439</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5593887141132249</v>
+        <v>0.6222076387338514</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1208082805477762</v>
+        <v>0.1140868594488578</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4.605199413564991</v>
+        <v>4.814142734468727</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.785260197570276</v>
+        <v>2.140407856217941</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.779058272279811</v>
+        <v>1.963301837950585</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.892354376118608</v>
+        <v>1.948257072720911</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6930890708038431</v>
+        <v>0.73825128106367</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5163909758359551</v>
+        <v>0.5700051484052461</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>8.69650046784788</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.203902126682677</v>
+        <v>3.203902126682673</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.297673910735105</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.791278171703505</v>
+        <v>2.996914134123857</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3.410669894331166</v>
+        <v>3.694489261825738</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.536967603730326</v>
+        <v>1.51458597826066</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.712123819059427</v>
+        <v>2.270037227695036</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.978501988770466</v>
+        <v>4.094818284516046</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.05602556844592657</v>
+        <v>-0.1561016558005712</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.737400022819837</v>
+        <v>3.883214148718328</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.868154279672951</v>
+        <v>4.654659911385446</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.197312203706256</v>
+        <v>1.474403691484841</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.782561430500897</v>
+        <v>9.638849968047694</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.17390174753297</v>
+        <v>10.59697444004242</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.411484968039892</v>
+        <v>6.526086504350999</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.42498445876271</v>
+        <v>11.2753394054066</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>13.49839601291059</v>
+        <v>13.60707500420551</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.085910647443235</v>
+        <v>6.153854223114444</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.149820506906863</v>
+        <v>9.021117249409413</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.84710662639973</v>
+        <v>10.87718301768926</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.521732828980515</v>
+        <v>5.451426413831493</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>2.292984744531805</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8447649404053237</v>
+        <v>0.8447649404053226</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>2.440446478353897</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.9602376176673191</v>
+        <v>0.7591121241704373</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1.096737471554144</v>
+        <v>1.142624594327236</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.3799129632981067</v>
+        <v>0.4100299314685666</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.3841606088718278</v>
+        <v>0.348321198131512</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.6867835029827226</v>
+        <v>0.5888936605083546</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.03595715623683331</v>
+        <v>-0.1206934497041713</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8967412781251304</v>
+        <v>0.9735456195348926</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1.146155518597581</v>
+        <v>1.194991198812216</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2563564348000531</v>
+        <v>0.3445918933104858</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>22.99581717710696</v>
+        <v>19.92476705997903</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>25.96024926248514</v>
+        <v>21.70149400066374</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>16.30108988216468</v>
+        <v>13.28176651052756</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>4.868859376951851</v>
+        <v>5.131155148907899</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>6.708132556105133</v>
+        <v>6.043515488809446</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.723370176466825</v>
+        <v>2.778208083317044</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>5.36949668513156</v>
+        <v>5.216240305720262</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>6.792012984265444</v>
+        <v>6.393852037275006</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.230378781563273</v>
+        <v>3.272663075587358</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.208225966741632</v>
+        <v>-3.448719598949299</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.946257794458637</v>
+        <v>-1.835350420159867</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.177522479029273</v>
+        <v>-0.5105787793996884</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.242103425360534</v>
+        <v>-4.963921581171872</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.8011186021795923</v>
+        <v>-0.9718849849966414</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.8054111923693646</v>
+        <v>0.8183436434882632</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.547357706806061</v>
+        <v>-3.543871115438298</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.7908108838287486</v>
+        <v>-0.7163660871291299</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.122097615626691</v>
+        <v>1.036704969790703</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.622089555154032</v>
+        <v>1.29457280585324</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.704467855411484</v>
+        <v>3.625109169800628</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.550494852722456</v>
+        <v>5.378733695196511</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.9446617016774534</v>
+        <v>1.069274776451394</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.712677421934579</v>
+        <v>5.854057765038966</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.333593054407387</v>
+        <v>7.450481540027059</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.4502224973961729</v>
+        <v>0.4730016538529751</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.681292534465887</v>
+        <v>3.852555861249087</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.505422818048617</v>
+        <v>5.342771503163016</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5145788064516522</v>
+        <v>-0.5281153015983034</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3425120645544756</v>
+        <v>-0.2903976502703935</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.0652981035854697</v>
+        <v>-0.08471828540558343</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4660291607330907</v>
+        <v>-0.4525062981571089</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07135476610424031</v>
+        <v>-0.1065044513033132</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06519282861798863</v>
+        <v>0.06717314068240829</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4226215929967914</v>
+        <v>-0.4132420899881169</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.08951905422869777</v>
+        <v>-0.08406859256077658</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1308521087637204</v>
+        <v>0.1171129184060549</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4407698369568004</v>
+        <v>0.3473621303397053</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9221300602620742</v>
+        <v>0.9005177958203263</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.3848854214623</v>
+        <v>1.366682549673411</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1203434040298142</v>
+        <v>0.1377280276749527</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7342619930263882</v>
+        <v>0.7123616642215173</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9341841976804688</v>
+        <v>0.9341187821877661</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07558109020307531</v>
+        <v>0.08173563151647283</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5780224394661906</v>
+        <v>0.6238926564545224</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8817047112302059</v>
+        <v>0.8543950246544674</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.103870593874962</v>
+        <v>-1.802334283650423</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.069557047667752</v>
+        <v>-5.932781780570486</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.566678779922619</v>
+        <v>-4.516343257341812</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.580474749491442</v>
+        <v>2.714908448532495</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.348156939757266</v>
+        <v>-5.007403639510277</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.641772583349394</v>
+        <v>2.840656103441427</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.362207280944431</v>
+        <v>1.29584669014734</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.920283525812844</v>
+        <v>-4.736722430497031</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.4603683212532597</v>
+        <v>-0.1726301757567241</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.089237156297524</v>
+        <v>4.11528002729815</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.291677832996402</v>
+        <v>-1.157549442516607</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.4522584741572281</v>
+        <v>0.2522663844078183</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.98749711198122</v>
+        <v>9.059063162100975</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.4427466779413609</v>
+        <v>0.2667399064385009</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>8.364501879469625</v>
+        <v>8.820345067282947</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.825595838823737</v>
+        <v>5.833392707089445</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.9653749460842027</v>
+        <v>-1.130736635078987</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.705708124207126</v>
+        <v>3.914011136489159</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2465647848904569</v>
+        <v>-0.2021151340605122</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6593924172740685</v>
+        <v>-0.6508286580905711</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4822315938242014</v>
+        <v>-0.4891184901204803</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2270018622193773</v>
+        <v>0.2286521777851595</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.489820429327037</v>
+        <v>-0.4742318143563428</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2315915305487448</v>
+        <v>0.2581661713251238</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1394568333258427</v>
+        <v>0.1455467974926292</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5060317893429319</v>
+        <v>-0.4901988356603822</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.04023168547118133</v>
+        <v>-0.01409395658796918</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6291856425112433</v>
+        <v>0.6682983970557185</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1922136656909833</v>
+        <v>-0.1728642852465895</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.08434125828177233</v>
+        <v>0.07339470382804578</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.138568906830848</v>
+        <v>1.192872384539847</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.05668113308160543</v>
+        <v>0.03305341802749472</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.08872308625876</v>
+        <v>1.195994965888708</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.769824194175188</v>
+        <v>0.8093723555743598</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1322818392225531</v>
+        <v>-0.1498225221507893</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5070970602433291</v>
+        <v>0.5289569658011113</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>1.192130252021803</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>1.466957182370032</v>
+        <v>1.466957182370034</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.4029323904941162</v>
+        <v>0.3351946384440095</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.9531810188207355</v>
+        <v>-1.164829981057757</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.5526612031054742</v>
+        <v>-0.5555080975179282</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.9228190866145</v>
+        <v>3.794207513181717</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.8290644753086449</v>
+        <v>0.6576031331209855</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.934141671283539</v>
+        <v>0.9828274866805203</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.569165623428129</v>
+        <v>2.560220311458695</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.307388150717867</v>
+        <v>0.2932613761369085</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.4801582231632586</v>
+        <v>0.6573449041141491</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.784713472193365</v>
+        <v>2.662226826781416</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.307345548645158</v>
+        <v>1.08620955708903</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.802343108772305</v>
+        <v>1.590990963726951</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>7.042344896655739</v>
+        <v>6.967373470113604</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.740773609038092</v>
+        <v>3.700645201211304</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.554048265556513</v>
+        <v>3.568501100853057</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.4837149860664</v>
+        <v>4.650314032359081</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>2.221610674855818</v>
+        <v>2.150208419001085</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.332338584217085</v>
+        <v>2.387534181445877</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>0.1734912874193875</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.2134869824223196</v>
+        <v>0.2134869824223198</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.0658333700311371</v>
+        <v>0.05952204042919877</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1640153674946625</v>
+        <v>-0.1913044418984059</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1000881317776135</v>
+        <v>-0.09528633174406986</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.4157313982911451</v>
+        <v>0.421837251167711</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.08467134287263627</v>
+        <v>0.07006854950230999</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.100197727065281</v>
+        <v>0.1079354836121378</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3522384315067462</v>
+        <v>0.3482420695563835</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.03983785750702038</v>
+        <v>0.04009086968169628</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.06163183391697449</v>
+        <v>0.09019684523067566</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.6067382942365688</v>
+        <v>0.5747964087121562</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.2824983244412974</v>
+        <v>0.2263919285207011</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.381206560090006</v>
+        <v>0.3421653324864618</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.8920163574618788</v>
+        <v>0.8927576098884394</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4778906249425127</v>
+        <v>0.4744245673478476</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4610583499124604</v>
+        <v>0.4625726454418022</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.7068560795907982</v>
+        <v>0.7290568663860859</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.3441555568084582</v>
+        <v>0.3378558691730507</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.3557503938009229</v>
+        <v>0.3698390003714277</v>
       </c>
     </row>
     <row r="58">
